--- a/src/main/resources/menBoohooJeans.xlsx
+++ b/src/main/resources/menBoohooJeans.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="175">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,115 +32,280 @@
     <t>URL</t>
   </si>
   <si>
-    <t>MEN JEANS</t>
+    <t>men_boohoo_jeans_1</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm57791_antique%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>TALL RELAXED RIGID APPLIQUE RIPPED JEANS</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-relaxed-rigid-applique-ripped-jeans/BMM57791.html?color=848</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_2</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77896_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SLIM FLARE DISTRESSED PANEL JEANS</t>
+  </si>
+  <si>
+    <t>$58.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/slim-flare-distressed-panel-jeans/BMM77896.html?color=436</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_3</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm58575_mid%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PANEL DENIM JACKET AND JEANS SET</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/panel-denim-jacket-and-jeans-set/MAN02876.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_4</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69508_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SKINNY JEANS WITH ALL OVER RIPS</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-skinny-jeans-with-all-over-rips/BMM69508.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_5</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75238_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BAGGY RIGID BM APPLIQUE MULTI POCKET CARGO JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/baggy-rigid-bm-applique-multi-pocket-cargo-jeans/BMM75238.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_6</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm79500_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SKINNY STRETCH RIP AND REPAIR JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-skinny-stretch-rip-and-repair-jean/BMM79500.html?color=847</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm72911_grey%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS STRETCH SKINNY OVER DYED BIKER JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-stretch-skinny-over-dyed-biker-jean/BMM72911.html?color=914</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_8</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69434_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SKINNY STRETCH STACKED JEANS</t>
+  </si>
+  <si>
+    <t>$46.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-skinny-stretch-stacked-jeans/BMM69434.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77067_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SKINNY STRETCH OVERDYED APPLIQUE GUSSET JEANS</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-skinny-stretch-overdyed-applique-gusset-jeans/BMM77067.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_10</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm55359_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LASER PRINT DENIM JACKET AND JEANS SET</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/laser-print-denim-jacket-and-jeans-set/MAN02851.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_11</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm51514_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>SUPER SKINNY STRETCH STRAP DETAIL CARGO JEANS</t>
   </si>
   <si>
-    <t>$58.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/super-skinny-stretch-strap-detail-cargo-jeans/BMM51514.html?color=209</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm57792_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL RELAXED RIGID APPLIQUE RIPPED JEANS</t>
-  </si>
-  <si>
-    <t>$30.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-relaxed-rigid-applique-ripped-jeans/BMM57792.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55359_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LASER PRINT DENIM JACKET AND JEANS SET</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/laser-print-denim-jacket-and-jeans-set/MAN02851.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm57502_mid%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS SLIM RIGID JEAN</t>
-  </si>
-  <si>
-    <t>$40.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-slim-rigid-jean/BMM57502.html?color=802</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55357_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>ELASTIC WAIST DROPPED CROTCH BAGGY OMBRE JEANS</t>
+    <t>men_boohoo_jeans_12</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74713_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>RELAXED RIGID CARPENTER PAINT SPLATTER JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/relaxed-rigid-carpenter-paint-splatter-jeans/BMM74713.html?color=564</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77061_antique%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SLIM RIGID FLARE CARPENTER JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-slim-rigid-flare-carpenter-jeans/BMM77061.html?color=848</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68118_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SLIM RIGID FLARE GUSSET DETAIL JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/slim-rigid-flare-gusset-detail-jeans/BMM68118.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm76001_bleach%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SKINNY STRETCH ALL OVER RIP JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-skinny-stretch-all-over-rip-jean/BMM76001.html?color=425</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77064_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL RELAXED RIGID FLARE SELF FABRIC APPLIQUE GUSSET JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-relaxed-rigid-flare-self-fabric-applique-gusset-jeans/BMM77064.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69500_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL TAPERED FIT JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-tapered-fit-jeans/BMM69500.html?color=803</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77063_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL EXTREME BAGGY FRAYED SELF FABRIC APPLIQUE JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-extreme-baggy-frayed-self-fabric-applique-jeans/BMM77063.html?color=564</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77057_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SKINNY STACKED DISTRESSED RIPPED JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-skinny-stacked-distressed-ripped-jeans/BMM77057.html?color=847</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm21151_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SKINNY STRETCH ALL OVER RIP JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/skinny-stretch-all-over-rip-jeans/BMM21151.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm48873_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY FIT FABRIC INTEREST DENIM JACKET AND JEANS</t>
   </si>
   <si>
     <t>$74.50</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/elastic-waist-dropped-crotch-baggy-ombre-jeans/BMM55357.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm48873_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY FIT FABRIC INTEREST DENIM JACKET AND JEANS</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/boxy-fit-fabric-interest-denim-jacket-and-jeans/MAN02907.html</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75238_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BAGGY RIGID BM APPLIQUE MULTI POCKET CARGO JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/baggy-rigid-bm-applique-multi-pocket-cargo-jeans/BMM75238.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77063_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL EXTREME BAGGY FRAYED SELF FABRIC APPLIQUE JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-extreme-baggy-frayed-self-fabric-applique-jeans/BMM77063.html?color=564</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76001_bleach%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS SKINNY STRETCH ALL OVER RIP JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-skinny-stretch-all-over-rip-jean/BMM76001.html?color=425</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77896_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SLIM FLARE DISTRESSED PANEL JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/slim-flare-distressed-panel-jeans/BMM77896.html?color=436</t>
+    <t>men_boohoo_jeans_22</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm77634_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -152,262 +317,226 @@
     <t>https://ca.boohoo.com/extreme-wide-fit-jeans-in-ice-blue/BMM77634.html?color=803</t>
   </si>
   <si>
+    <t>men_boohoo_jeans_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69441_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SKINNY STACKED DISTRESSED RIPPED JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-skinny-stacked-distressed-ripped-jeans/BMM69441.html?color=847</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm71671_dark%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BAGGY RIGID FABRIC INTEREST DISTRESSED JEANS</t>
+  </si>
+  <si>
+    <t>$82.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/baggy-rigid-fabric-interest-distressed-jeans/BMM71671.html?color=391</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm58240_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>RELAXED RIGID LASER TEXT DISTRESSED JEANS</t>
+  </si>
+  <si>
+    <t>$66.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/relaxed-rigid-laser-text-distressed-jeans/BMM58240.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_26</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/bmm53055_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
     <t>BAGGY RIGID STRAP DETAIL DISTRESSED CARGO JEANS</t>
   </si>
   <si>
-    <t>$66.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/baggy-rigid-strap-detail-distressed-cargo-jeans/BMM53055.html?color=340</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm58240_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RELAXED RIGID LASER TEXT DISTRESSED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/relaxed-rigid-laser-text-distressed-jeans/BMM58240.html?color=131</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm58575_mid%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PANEL DENIM JACKET AND JEANS SET</t>
+    <t>men_boohoo_jeans_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm67724_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BAGGY RIGID DISTRESSED JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/baggy-rigid-distressed-jeans/BMM67724.html?color=803</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_28</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77050_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS BAGGY RIGID STRAP AND BUCKLE DETAIL JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-baggy-rigid-strap-and-buckle-detail-jeans/BMM77050.html?color=436</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_29</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77059_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS RELAXED RIGID DISTRESSED JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-relaxed-rigid-distressed-jeans/BMM77059.html?color=550</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_30</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm81206_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS BAGGY FIT ACID WASH CARGO JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-baggy-fit-acid-wash-cargo-jeans/BMM81206.html?color=550</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_31</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75999_ice%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SKINNY STRETCH HEAVY BLEACHED RIPPED JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-skinny-stretch-heavy-bleached-ripped-jean/BMM75999.html?color=979</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_32</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77087_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL RELAXED RIGID DISTRESSED JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-relaxed-rigid-distressed-jeans/BMM77087.html?color=550</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_33</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm71673_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>RELAXED RIGID FABRIC INTEREST JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/relaxed-rigid-fabric-interest-jeans/BMM71673.html?color=106</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_34</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68684_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL RELAXED RIGID OVERDYED LET DOWN HEM JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-relaxed-rigid-overdyed-let-down-hem-jeans/BMM68684.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_35</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69438_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL RELAXED RIGID ZIP HEM JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-relaxed-rigid-zip-hem-jeans/BMM69438.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_36</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm66778_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SLIM FLARE STRETCH MULTI RIP &amp; REPAIR JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-slim-flare-stretch-multi-rip-repair-jean/BMM66778.html?color=550</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_37</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69436_antique%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-relaxed-rigid-zip-hem-jeans/BMM69436.html?color=848</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_38</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm66784_indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL RELAXED RIGID MULTI RIP PANELLED JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-relaxed-rigid-multi-rip-panelled-jean/BMM66784.html?color=132</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_39</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75975_bleach%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SKINNY STRETCH ALL OVER RIP JEAN</t>
   </si>
   <si>
     <t>$57.00</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/panel-denim-jacket-and-jeans-set/MAN02876.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75975_bleach%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SKINNY STRETCH ALL OVER RIP JEAN</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/tall-skinny-stretch-all-over-rip-jean/BMM75975.html</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm79500_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SKINNY STRETCH RIP AND REPAIR JEAN</t>
-  </si>
-  <si>
-    <t>$82.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-skinny-stretch-rip-and-repair-jean/BMM79500.html?color=847</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71673_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RELAXED RIGID FABRIC INTEREST JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/relaxed-rigid-fabric-interest-jeans/BMM71673.html?color=106</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69508_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SKINNY JEANS WITH ALL OVER RIPS</t>
-  </si>
-  <si>
-    <t>$63.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-skinny-jeans-with-all-over-rips/BMM69508.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm53053_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RELAXED RIGID ELASTIC WAIST CARGO JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/relaxed-rigid-elastic-waist-cargo-jeans/BMM53053.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75999_ice%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS SKINNY STRETCH HEAVY BLEACHED RIPPED JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-skinny-stretch-heavy-bleached-ripped-jean/BMM75999.html?color=979</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77051_indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS BAGGY RIGID STRAP AND BUCKLE DETAIL JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-baggy-rigid-strap-and-buckle-detail-jeans/BMM77051.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74713_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RELAXED RIGID CARPENTER PAINT SPLATTER JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/relaxed-rigid-carpenter-paint-splatter-jeans/BMM74713.html?color=564</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm67724_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BAGGY RIGID DISTRESSED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/baggy-rigid-distressed-jeans/BMM67724.html?color=803</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77050_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-baggy-rigid-strap-and-buckle-detail-jeans/BMM77050.html?color=436</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm72070_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BAGGY RIGID FABRIC INTEREST DISTRESSED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/baggy-rigid-fabric-interest-distressed-jeans/BMM72070.html?color=564</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77061_antique%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS SLIM RIGID FLARE CARPENTER JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-slim-rigid-flare-carpenter-jeans/BMM77061.html?color=848</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77087_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL RELAXED RIGID DISTRESSED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-relaxed-rigid-distressed-jeans/BMM77087.html?color=550</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm66776_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL RELAXED RIGID MULTI RIP JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-relaxed-rigid-multi-rip-jean/BMM66776.html?color=847</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77067_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SKINNY STRETCH OVERDYED APPLIQUE GUSSET JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-skinny-stretch-overdyed-applique-gusset-jeans/BMM77067.html?color=131</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77059_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS RELAXED RIGID DISTRESSED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-relaxed-rigid-distressed-jeans/BMM77059.html?color=550</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm21151_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SKINNY STRETCH ALL OVER RIP JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/skinny-stretch-all-over-rip-jeans/BMM21151.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69461_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS SLIM RIGID FLARE GUSSET JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-slim-rigid-flare-gusset-jeans/BMM69461.html?color=131</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm70258_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BAGGY RIGID FRAYED SPLICED JEANS IN TRUE BLACK</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/baggy-rigid-frayed-spliced-jeans-in-true-black/BMM70258.html?color=847</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69441_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SKINNY STACKED DISTRESSED RIPPED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-skinny-stacked-distressed-ripped-jeans/BMM69441.html?color=847</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm72914_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS ACID WASH STRETCH SKINNY CARGO BIKER JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-acid-wash-stretch-skinny-cargo-biker-jean/BMM72914.html?color=803</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm49158_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY FIT FRAYED SEAM DENIM JACKET AND JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-fit-frayed-seam-denim-jacket-and-jeans/MAN02915.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75976_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL RELAXED RIGID JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-relaxed-rigid-jeans/BMM75976.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm57845_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RIGID TAPESTRY JACKET AND JEANS SET</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/rigid-tapestry-jacket-and-jeans-set/MAN02825.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm78371_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/slim-flare-distressed-panel-jeans/BMM78371.html?color=508</t>
+    <t>men_boohoo_jeans_40</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75234_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>RELAXED RIGID TOP STITCH DETAIL OVERDYED CARPENTER JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/relaxed-rigid-top-stitch-detail-overdyed-carpenter-jean-/BMM75234.html?color=209</t>
   </si>
 </sst>
 </file>
@@ -452,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -500,762 +629,782 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>48</v>
-      </c>
       <c r="F13" t="s" s="0">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>117</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>131</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menBoohooJeans.xlsx
+++ b/src/main/resources/menBoohooJeans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="171">
   <si>
     <t>Id</t>
   </si>
@@ -35,12 +35,39 @@
     <t>men_boohoo_jeans_1</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77059_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>PLUS RELAXED RIGID DISTRESSED JEANS</t>
+  </si>
+  <si>
+    <t>$58.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-relaxed-rigid-distressed-jeans/BMM77059.html?color=550</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_2</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77896_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SLIM FLARE DISTRESSED PANEL JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/slim-flare-distressed-panel-jeans/BMM77896.html?color=436</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_3</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/bmm57791_antique%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>TALL RELAXED RIGID APPLIQUE RIPPED JEANS</t>
   </si>
   <si>
@@ -50,22 +77,7 @@
     <t>https://ca.boohoo.com/tall-relaxed-rigid-applique-ripped-jeans/BMM57791.html?color=848</t>
   </si>
   <si>
-    <t>men_boohoo_jeans_2</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77896_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SLIM FLARE DISTRESSED PANEL JEANS</t>
-  </si>
-  <si>
-    <t>$58.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/slim-flare-distressed-panel-jeans/BMM77896.html?color=436</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_3</t>
+    <t>men_boohoo_jeans_4</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm58575_mid%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -77,7 +89,223 @@
     <t>https://ca.boohoo.com/panel-denim-jacket-and-jeans-set/MAN02876.html</t>
   </si>
   <si>
-    <t>men_boohoo_jeans_4</t>
+    <t>men_boohoo_jeans_5</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm79500_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SKINNY STRETCH RIP AND REPAIR JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-skinny-stretch-rip-and-repair-jean/BMM79500.html?color=847</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_6</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77067_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SKINNY STRETCH OVERDYED APPLIQUE GUSSET JEANS</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-skinny-stretch-overdyed-applique-gusset-jeans/BMM77067.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm51514_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SUPER SKINNY STRETCH STRAP DETAIL CARGO JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/super-skinny-stretch-strap-detail-cargo-jeans/BMM51514.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_8</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm72911_grey%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS STRETCH SKINNY OVER DYED BIKER JEAN</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-stretch-skinny-over-dyed-biker-jean/BMM72911.html?color=914</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69434_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SKINNY STRETCH STACKED JEANS</t>
+  </si>
+  <si>
+    <t>$46.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-skinny-stretch-stacked-jeans/BMM69434.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_10</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74713_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>RELAXED RIGID CARPENTER PAINT SPLATTER JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/relaxed-rigid-carpenter-paint-splatter-jeans/BMM74713.html?color=564</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_11</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77064_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL RELAXED RIGID FLARE SELF FABRIC APPLIQUE GUSSET JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-relaxed-rigid-flare-self-fabric-applique-gusset-jeans/BMM77064.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_12</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm70136_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BAGGY RIGID DETAIL ACID WASH JEANS</t>
+  </si>
+  <si>
+    <t>$63.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/baggy-rigid-detail-acid-wash-jeans/BMM70136.html?color=803</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77061_antique%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SLIM RIGID FLARE CARPENTER JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-slim-rigid-flare-carpenter-jeans/BMM77061.html?color=848</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68118_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SLIM RIGID FLARE GUSSET DETAIL JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/slim-rigid-flare-gusset-detail-jeans/BMM68118.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm67724_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BAGGY RIGID DISTRESSED JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/baggy-rigid-distressed-jeans/BMM67724.html?color=803</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm55359_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LASER PRINT DENIM JACKET AND JEANS SET</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/laser-print-denim-jacket-and-jeans-set/MAN02851.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69465_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS RELAXED RIGID FLARE FRAYED EDGE JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-relaxed-rigid-flare-frayed-edge-jeans/BMM69465.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77069_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL BAGGY RIGID BM APPLIQUE MULTI POCKET CARGO JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-baggy-rigid-bm-applique-multi-pocket-cargo-jeans/BMM77069.html?color=564</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77063_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL EXTREME BAGGY FRAYED SELF FABRIC APPLIQUE JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-extreme-baggy-frayed-self-fabric-applique-jeans/BMM77063.html?color=564</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75238_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BAGGY RIGID BM APPLIQUE MULTI POCKET CARGO JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/baggy-rigid-bm-applique-multi-pocket-cargo-jeans/BMM75238.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77057_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SKINNY STACKED DISTRESSED RIPPED JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-skinny-stacked-distressed-ripped-jeans/BMM77057.html?color=847</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_22</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm69508_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -86,139 +314,169 @@
     <t>TALL SKINNY JEANS WITH ALL OVER RIPS</t>
   </si>
   <si>
-    <t>$40.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/tall-skinny-jeans-with-all-over-rips/BMM69508.html</t>
   </si>
   <si>
-    <t>men_boohoo_jeans_5</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75238_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BAGGY RIGID BM APPLIQUE MULTI POCKET CARGO JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/baggy-rigid-bm-applique-multi-pocket-cargo-jeans/BMM75238.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_6</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm79500_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SKINNY STRETCH RIP AND REPAIR JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-skinny-stretch-rip-and-repair-jean/BMM79500.html?color=847</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_7</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm72911_grey%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS STRETCH SKINNY OVER DYED BIKER JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-stretch-skinny-over-dyed-biker-jean/BMM72911.html?color=914</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_8</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69434_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SKINNY STRETCH STACKED JEANS</t>
-  </si>
-  <si>
-    <t>$46.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-skinny-stretch-stacked-jeans/BMM69434.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_9</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77067_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SKINNY STRETCH OVERDYED APPLIQUE GUSSET JEANS</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-skinny-stretch-overdyed-applique-gusset-jeans/BMM77067.html?color=131</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_10</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55359_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LASER PRINT DENIM JACKET AND JEANS SET</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/laser-print-denim-jacket-and-jeans-set/MAN02851.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_11</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm51514_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SUPER SKINNY STRETCH STRAP DETAIL CARGO JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/super-skinny-stretch-strap-detail-cargo-jeans/BMM51514.html?color=209</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_12</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74713_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RELAXED RIGID CARPENTER PAINT SPLATTER JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/relaxed-rigid-carpenter-paint-splatter-jeans/BMM74713.html?color=564</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_13</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77061_antique%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS SLIM RIGID FLARE CARPENTER JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-slim-rigid-flare-carpenter-jeans/BMM77061.html?color=848</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_14</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68118_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SLIM RIGID FLARE GUSSET DETAIL JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/slim-rigid-flare-gusset-detail-jeans/BMM68118.html?color=209</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_15</t>
+    <t>men_boohoo_jeans_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77060_antique%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS RELAXED RIGID FLARE APPLIQUE JEANS</t>
+  </si>
+  <si>
+    <t>$66.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-relaxed-rigid-flare-applique-jeans/BMM77060.html?color=848</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77634_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>EXTREME WIDE FIT JEANS IN ICE BLUE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/extreme-wide-fit-jeans-in-ice-blue/BMM77634.html?color=803</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm48873_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY FIT FABRIC INTEREST DENIM JACKET AND JEANS</t>
+  </si>
+  <si>
+    <t>$74.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-fit-fabric-interest-denim-jacket-and-jeans/MAN02907.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_26</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm21151_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SKINNY STRETCH ALL OVER RIP JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/skinny-stretch-all-over-rip-jeans/BMM21151.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm78371_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/slim-flare-distressed-panel-jeans/BMM78371.html?color=508</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_28</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69500_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL TAPERED FIT JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-tapered-fit-jeans/BMM69500.html?color=803</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_29</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm53055_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BAGGY RIGID STRAP DETAIL DISTRESSED CARGO JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/baggy-rigid-strap-detail-distressed-cargo-jeans/BMM53055.html?color=340</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_30</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm81206_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS BAGGY FIT ACID WASH CARGO JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-baggy-fit-acid-wash-cargo-jeans/BMM81206.html?color=550</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_31</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69450_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SKINNY STRETCH STACKED TINTED JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-skinny-stretch-stacked-tinted-jeans/BMM69450.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_32</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm77087_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL RELAXED RIGID DISTRESSED JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-relaxed-rigid-distressed-jeans/BMM77087.html?color=550</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_33</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm57504_mid%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SUPER SKINNY STRETCH JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-super-skinny-stretch-jean/BMM57504.html?color=802</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_34</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75999_ice%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SKINNY STRETCH HEAVY BLEACHED RIPPED JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-skinny-stretch-heavy-bleached-ripped-jean/BMM75999.html?color=979</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_35</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69441_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL SKINNY STACKED DISTRESSED RIPPED JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-skinny-stacked-distressed-ripped-jeans/BMM69441.html?color=847</t>
+  </si>
+  <si>
+    <t>men_boohoo_jeans_36</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm76001_bleach%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -227,109 +485,13 @@
     <t>PLUS SKINNY STRETCH ALL OVER RIP JEAN</t>
   </si>
   <si>
+    <t>$82.50</t>
+  </si>
+  <si>
     <t>https://ca.boohoo.com/plus-skinny-stretch-all-over-rip-jean/BMM76001.html?color=425</t>
   </si>
   <si>
-    <t>men_boohoo_jeans_16</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77064_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL RELAXED RIGID FLARE SELF FABRIC APPLIQUE GUSSET JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-relaxed-rigid-flare-self-fabric-applique-gusset-jeans/BMM77064.html?color=131</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_17</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69500_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL TAPERED FIT JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-tapered-fit-jeans/BMM69500.html?color=803</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_18</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77063_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL EXTREME BAGGY FRAYED SELF FABRIC APPLIQUE JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-extreme-baggy-frayed-self-fabric-applique-jeans/BMM77063.html?color=564</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_19</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77057_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS SKINNY STACKED DISTRESSED RIPPED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-skinny-stacked-distressed-ripped-jeans/BMM77057.html?color=847</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_20</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm21151_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SKINNY STRETCH ALL OVER RIP JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/skinny-stretch-all-over-rip-jeans/BMM21151.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_21</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm48873_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY FIT FABRIC INTEREST DENIM JACKET AND JEANS</t>
-  </si>
-  <si>
-    <t>$74.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-fit-fabric-interest-denim-jacket-and-jeans/MAN02907.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_22</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77634_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>EXTREME WIDE FIT JEANS IN ICE BLUE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/extreme-wide-fit-jeans-in-ice-blue/BMM77634.html?color=803</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_23</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69441_true%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SKINNY STACKED DISTRESSED RIPPED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-skinny-stacked-distressed-ripped-jeans/BMM69441.html?color=847</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_24</t>
+    <t>men_boohoo_jeans_37</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm71671_dark%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -338,112 +500,10 @@
     <t>BAGGY RIGID FABRIC INTEREST DISTRESSED JEANS</t>
   </si>
   <si>
-    <t>$82.50</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/baggy-rigid-fabric-interest-distressed-jeans/BMM71671.html?color=391</t>
   </si>
   <si>
-    <t>men_boohoo_jeans_25</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm58240_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RELAXED RIGID LASER TEXT DISTRESSED JEANS</t>
-  </si>
-  <si>
-    <t>$66.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/relaxed-rigid-laser-text-distressed-jeans/BMM58240.html?color=131</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_26</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm53055_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BAGGY RIGID STRAP DETAIL DISTRESSED CARGO JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/baggy-rigid-strap-detail-distressed-cargo-jeans/BMM53055.html?color=340</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_27</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm67724_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BAGGY RIGID DISTRESSED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/baggy-rigid-distressed-jeans/BMM67724.html?color=803</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_28</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77050_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS BAGGY RIGID STRAP AND BUCKLE DETAIL JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-baggy-rigid-strap-and-buckle-detail-jeans/BMM77050.html?color=436</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_29</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77059_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS RELAXED RIGID DISTRESSED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-relaxed-rigid-distressed-jeans/BMM77059.html?color=550</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_30</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm81206_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS BAGGY FIT ACID WASH CARGO JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-baggy-fit-acid-wash-cargo-jeans/BMM81206.html?color=550</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_31</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75999_ice%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS SKINNY STRETCH HEAVY BLEACHED RIPPED JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-skinny-stretch-heavy-bleached-ripped-jean/BMM75999.html?color=979</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_32</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77087_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL RELAXED RIGID DISTRESSED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-relaxed-rigid-distressed-jeans/BMM77087.html?color=550</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_33</t>
+    <t>men_boohoo_jeans_38</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm71673_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -455,31 +515,7 @@
     <t>https://ca.boohoo.com/relaxed-rigid-fabric-interest-jeans/BMM71673.html?color=106</t>
   </si>
   <si>
-    <t>men_boohoo_jeans_34</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68684_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL RELAXED RIGID OVERDYED LET DOWN HEM JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-relaxed-rigid-overdyed-let-down-hem-jeans/BMM68684.html?color=209</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_35</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69438_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL RELAXED RIGID ZIP HEM JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-relaxed-rigid-zip-hem-jeans/BMM69438.html?color=131</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_36</t>
+    <t>men_boohoo_jeans_39</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm66778_antique%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -489,54 +525,6 @@
   </si>
   <si>
     <t>https://ca.boohoo.com/tall-slim-flare-stretch-multi-rip-repair-jean/BMM66778.html?color=550</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_37</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69436_antique%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-relaxed-rigid-zip-hem-jeans/BMM69436.html?color=848</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_38</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm66784_indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL RELAXED RIGID MULTI RIP PANELLED JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-relaxed-rigid-multi-rip-panelled-jean/BMM66784.html?color=132</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_39</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75975_bleach%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SKINNY STRETCH ALL OVER RIP JEAN</t>
-  </si>
-  <si>
-    <t>$57.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-skinny-stretch-all-over-rip-jean/BMM75975.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_jeans_40</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75234_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RELAXED RIGID TOP STITCH DETAIL OVERDYED CARPENTER JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/relaxed-rigid-top-stitch-detail-overdyed-carpenter-jean-/BMM75234.html?color=209</t>
   </si>
 </sst>
 </file>
@@ -581,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -641,27 +629,27 @@
         <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>15</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>20</v>
@@ -681,47 +669,47 @@
         <v>23</v>
       </c>
       <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="C7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="E7" t="s" s="0">
         <v>32</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>15</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>33</v>
@@ -741,7 +729,7 @@
         <v>36</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>37</v>
@@ -801,7 +789,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>51</v>
@@ -821,7 +809,7 @@
         <v>54</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>55</v>
@@ -841,187 +829,187 @@
         <v>58</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s" s="0">
         <v>96</v>
@@ -1041,7 +1029,7 @@
         <v>99</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>100</v>
@@ -1061,27 +1049,27 @@
         <v>103</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="0">
         <v>109</v>
@@ -1121,7 +1109,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>118</v>
@@ -1138,190 +1126,190 @@
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s" s="0">
         <v>121</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="C29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="C29" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s" s="0">
+      <c r="E29" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s" s="0">
         <v>125</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="C30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s" s="0">
+      <c r="E30" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="0">
         <v>129</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="C31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="C31" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s" s="0">
+      <c r="E31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s" s="0">
         <v>133</v>
-      </c>
-      <c r="E31" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>134</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="C32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="C32" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s" s="0">
+      <c r="E32" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F32" t="s" s="0">
         <v>137</v>
-      </c>
-      <c r="E32" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="F32" t="s" s="0">
-        <v>138</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="C33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="C33" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s" s="0">
+      <c r="E33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s" s="0">
         <v>141</v>
-      </c>
-      <c r="E33" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F33" t="s" s="0">
-        <v>142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="C34" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="C34" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s" s="0">
+      <c r="E34" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s" s="0">
         <v>145</v>
-      </c>
-      <c r="E34" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>146</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="C35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s" s="0">
         <v>148</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s" s="0">
-        <v>149</v>
       </c>
       <c r="E35" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="C36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C36" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s" s="0">
+      <c r="E36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s" s="0">
         <v>153</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>154</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="C37" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="C37" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s" s="0">
+      <c r="E37" t="s" s="0">
         <v>157</v>
-      </c>
-      <c r="E37" t="s" s="0">
-        <v>24</v>
       </c>
       <c r="F37" t="s" s="0">
         <v>158</v>
@@ -1338,73 +1326,53 @@
         <v>8</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s" s="0">
         <v>170</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
